--- a/medicine/Handicap/Océan_paradis/Océan_paradis.xlsx
+++ b/medicine/Handicap/Océan_paradis/Océan_paradis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Oc%C3%A9an_paradis</t>
+          <t>Océan_paradis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Océan paradis (海洋天堂, Hai yang tian tang) est un film chinois réalisé par Xue Xiaolu, sorti en 2010.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Oc%C3%A9an_paradis</t>
+          <t>Océan_paradis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wang Xincheng travaille avec dévouement dans un parc d'attraction aquatique, et élève seul son fils Dafu. Âgé de 21 ans, Dafu est autiste : il ne peut se débrouiller seul dans le monde extérieur. En revanche, c'est un excellent nageur, et il rejoint souvent son père au travail, pour nager dans les immenses aquariums à côté des dauphins et des tortues. Lorsque Wang apprend qu'il est atteint d'un cancer en phase terminale, il va tout faire pour apprendre à son fils à s'intégrer à la société et à survivre seul…
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oc%C3%A9an_paradis</t>
+          <t>Océan_paradis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Océan paradis
 Titre original : 海洋天堂  Hai yang tian tang
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oc%C3%A9an_paradis</t>
+          <t>Océan_paradis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jet Li : Wang Xingcheng
 Wen Zhang : Dafu
